--- a/docs/PPG/Financiadores.xlsx
+++ b/docs/PPG/Financiadores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0A9D09-E8CC-F34E-AF89-D81E62B53A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753B21EF-B139-8548-B9E3-0100989B85E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="295">
   <si>
     <t>CAPEX</t>
   </si>
@@ -884,12 +884,6 @@
     <t>Doutor Empreendedor: Transformando Conhecimento em Inovação</t>
   </si>
   <si>
-    <t>Desenvolvimento de modelo de negócio para sistema de captura de movimento tridimensional sem marcadores através de inteligência artificial</t>
-  </si>
-  <si>
-    <t>https://www.faperj.br/rp/downloads/Resultado_Preliminar_Edital_FAPERJ_Nº_14_2022_-_Doutor_Empreendedor_Transformando_Conhecimento_em_Inovação.pdf</t>
-  </si>
-  <si>
     <t>Parceria</t>
   </si>
   <si>
@@ -924,6 +918,12 @@
   </si>
   <si>
     <t>VIII Fórum Nacional de Pesquisa e Pós-Graduação Strictu Sensu em Fisioterapia</t>
+  </si>
+  <si>
+    <t>Desenvolvimento de modelo de negócio para sistema de captura de movimento tridimensional sem marcadores atráves de inteligencia artificial</t>
+  </si>
+  <si>
+    <t>https://www.faperj.br/rp/downloads/Resultado_da_2ª_Etapa_Edital_FAPERJ_Nº_14_2022___Doutor_Empreendedor_Transformando_Conhecimento_em_Inovação.pdf</t>
   </si>
 </sst>
 </file>
@@ -1642,13 +1642,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K128"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C124" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A128" sqref="A128"/>
+      <selection pane="bottomRight" activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1780,7 +1780,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>29</v>
@@ -2132,7 +2132,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>57</v>
@@ -2216,13 +2216,13 @@
         <v>5</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>6</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>118</v>
@@ -3276,7 +3276,7 @@
         <v>7</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>122</v>
@@ -3649,7 +3649,7 @@
         <v>7</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>140</v>
@@ -3836,7 +3836,7 @@
         <v>7</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>151</v>
@@ -3986,7 +3986,7 @@
         <v>2</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>183</v>
@@ -4023,7 +4023,7 @@
         <v>2</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>173</v>
@@ -4244,7 +4244,7 @@
         <v>7</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>180</v>
@@ -4280,7 +4280,7 @@
         <v>7</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>168</v>
@@ -4361,7 +4361,7 @@
         <v>7</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>176</v>
@@ -4398,7 +4398,7 @@
         <v>7</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>171</v>
@@ -4549,7 +4549,7 @@
         <v>2</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>183</v>
@@ -5030,7 +5030,7 @@
         <v>7</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>227</v>
@@ -5066,7 +5066,7 @@
         <v>7</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>246</v>
@@ -5102,7 +5102,7 @@
         <v>2</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>240</v>
@@ -5371,7 +5371,7 @@
         <v>7</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D122" s="18" t="s">
         <v>228</v>
@@ -5408,7 +5408,7 @@
         <v>7</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D123" s="18" t="s">
         <v>228</v>
@@ -5537,7 +5537,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
         <v>2022</v>
       </c>
@@ -5551,22 +5551,69 @@
         <v>228</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="F128" s="7" t="s">
         <v>280</v>
       </c>
       <c r="G128" s="18"/>
       <c r="H128" s="17">
-        <f>SUM(I128)</f>
-        <v>0</v>
+        <f>SUM(I129:I131)</f>
+        <v>185600</v>
       </c>
       <c r="I128" s="17"/>
       <c r="J128" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K128" s="5" t="s">
-        <v>282</v>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A129" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G129" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H129" s="17"/>
+      <c r="I129" s="17">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A130" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G130" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="H130" s="17"/>
+      <c r="I130" s="17">
+        <f>5125*12+525*12</f>
+        <v>67800</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A131" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G131" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="H131" s="17"/>
+      <c r="I131" s="17">
+        <f>5125*12+525*12</f>
+        <v>67800</v>
       </c>
     </row>
   </sheetData>

--- a/docs/PPG/Financiadores.xlsx
+++ b/docs/PPG/Financiadores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioDL/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B26A759-151A-FE4C-8088-658DAC5C4F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA61DC2-A0A2-B640-8945-CE548A877FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="financiadores" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">financiadores!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">financiadores!$A$1:$K$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>CAPEX</t>
   </si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>Bolsa de Iniciação Tecnológica (IT)</t>
-  </si>
-  <si>
-    <t>Patricia Maria Dusek</t>
   </si>
   <si>
     <t>Apoio ao empreendedorismo socioambiental para jovens do ensino médio, do Complexo do Alemão, na cidade do Rio de Janeiro</t>
@@ -865,10 +862,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>15</v>
@@ -915,7 +912,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>18</v>
@@ -927,8 +924,8 @@
         <v>0</v>
       </c>
       <c r="H4" s="8">
-        <f>SUM(I4:I5)</f>
-        <v>107080</v>
+        <f>SUM(I4)</f>
+        <v>97000</v>
       </c>
       <c r="I4" s="8">
         <v>97000</v>
@@ -948,7 +945,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>22</v>
@@ -968,7 +965,7 @@
         <v>10080</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -988,16 +985,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -1011,7 +1008,7 @@
         <v>13200</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1046,16 +1043,16 @@
         <v>3</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>0</v>
@@ -1068,7 +1065,7 @@
         <v>36800</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -1079,16 +1076,16 @@
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>0</v>
@@ -1101,7 +1098,7 @@
         <v>229772.12</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/docs/PPG/Financiadores.xlsx
+++ b/docs/PPG/Financiadores.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioDL/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-DL/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA61DC2-A0A2-B640-8945-CE548A877FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A6608E-7BEC-A44A-BD3D-5C68F2F8527F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="financiadores" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">financiadores!$A$1:$K$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">financiadores!$A$1:$L$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>CAPEX</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>Em processamento</t>
+  </si>
+  <si>
+    <t>País</t>
+  </si>
+  <si>
+    <t>Brasil</t>
   </si>
 </sst>
 </file>
@@ -800,7 +806,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -815,11 +821,12 @@
     <col min="7" max="7" width="8" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="14.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="49.1640625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="62.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.83203125" style="5"/>
+    <col min="11" max="11" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="62.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -851,10 +858,13 @@
         <v>6</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>2020</v>
       </c>
@@ -886,8 +896,11 @@
       <c r="J2" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="K2" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2021</v>
       </c>
@@ -901,7 +914,7 @@
         <v>50765</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>2020</v>
       </c>
@@ -933,8 +946,11 @@
       <c r="J4" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="K4" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2021</v>
       </c>
@@ -967,8 +983,11 @@
       <c r="J5" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="K5" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>2022</v>
       </c>
@@ -977,7 +996,7 @@
         <v>10080</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>2021</v>
       </c>
@@ -1010,8 +1029,11 @@
       <c r="J7" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="K7" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>2023</v>
       </c>
@@ -1023,7 +1045,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2024</v>
       </c>
@@ -1035,7 +1057,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>2021</v>
       </c>
@@ -1067,8 +1089,11 @@
       <c r="J10" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="K10" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>2021</v>
       </c>
@@ -1099,6 +1124,9 @@
       </c>
       <c r="J11" s="5" t="s">
         <v>28</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
